--- a/ig/ch-elm/StructureDefinition-PublishDocumentReference.xlsx
+++ b/ig/ch-elm/StructureDefinition-PublishDocumentReference.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AQ$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AQ$56</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2179" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2222" uniqueCount="487">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-trialuse</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -45,13 +45,13 @@
     <t>Title</t>
   </si>
   <si>
-    <t>DocumentReference for  Publish</t>
+    <t>DocumentReference for sending the report</t>
   </si>
   <si>
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-13T14:50:01+02:00</t>
+    <t>2023-11-16T14:46:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,10 +84,9 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A profile on the DocumentReference resource for  Publish constraints. 
-Publish
+    <t>A profile on the DocumentReference resource with publication constraints: 
 - must be status current
-- must have an masterIdentifer
+- must have an identifier
 - uses attachment.url to carry the document as a contained resource</t>
   </si>
   <si>
@@ -134,6 +133,135 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: Workflow Pattern</t>
+  </si>
+  <si>
+    <t>Mapping: FHIR Composition</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: CDA (R2)</t>
+  </si>
+  <si>
+    <t>Mapping: FiveWs Pattern Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: HL7 v2 Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: XDS metadata equivalent</t>
   </si>
   <si>
     <t/>
@@ -940,6 +1068,10 @@
   </si>
   <si>
     <t>The document or URL of the document along with critical metadata to prove content has integrity.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ch-elm-urlconformstochelmbundle:Must have a resolvable URL conforming to the CH-ELM Bundle. {url.exists() and url.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ch-elm-document')}</t>
   </si>
   <si>
     <t>Composition.language, 
@@ -1058,7 +1190,7 @@
 </t>
   </si>
   <si>
-    <t>The document is referenced by this url, containted in the DocumentReference</t>
+    <t>The document is referenced by this url, contained in the DocumentReference</t>
   </si>
   <si>
     <t>A location where the data can be accessed.</t>
@@ -1116,7 +1248,7 @@
     <t>The calculated hash of the data using SHA-1. Represented using base64.</t>
   </si>
   <si>
-    <t>The hash is calculated on the data prior to base64 encoding, if the data is based64 encoded. The hash is not intended to support digital signatures. Where protection against malicious threats a digital signature should be considered, see [Provenance.signature](http://hl7.org/fhir/R4/provenance-definitions.html#Provenance.signature) for mechanism to protect a resource with a digital signature.</t>
+    <t>The hash is calculated on the data prior to base64 encoding, if the data is based64 encoded. The hash is not intended to support digital signatures. Where protection against malicious threats a digital signature should be considered, see [Provenance.signature](provenance-definitions.html#Provenance.signature) for mechanism to protect a resource with a digital signature.</t>
   </si>
   <si>
     <t>Included so that applications can verify that the contents of a location have not changed due to technical failures (e.g., storage rot, transport glitch, incorrect version).</t>
@@ -1718,7 +1850,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AQ55"/>
+  <dimension ref="A1:AQ56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1729,11 +1861,13 @@
   <cols>
     <col min="1" max="1" width="48.453125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="48.453125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.203125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="2.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.1875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="74.63671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1741,6794 +1875,6924 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="35.75" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="10.203125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="70.828125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="57.93359375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="9.2890625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="42.265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.203125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
-    <col min="17" max="17" width="20.703125" customWidth="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="20.46484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="50.64453125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="15.64453125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="33.05078125" customWidth="true" bestFit="true"/>
     <col min="42" max="42" width="81.69140625" customWidth="true" bestFit="true"/>
     <col min="43" max="43" width="155.44140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="H1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="N1" t="s" s="2">
+      <c r="G1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ1" t="s" s="2">
+      <c r="H1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="I1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="AL1" t="s" s="2">
+      <c r="J1" t="s" s="1">
         <v>47</v>
       </c>
-      <c r="AM1" t="s" s="2">
+      <c r="K1" t="s" s="1">
         <v>48</v>
       </c>
-      <c r="AN1" t="s" s="2">
+      <c r="L1" t="s" s="1">
         <v>49</v>
       </c>
-      <c r="AO1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AP1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AQ1" t="s" s="2">
-        <v>38</v>
+      <c r="M1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="AM1" t="s" s="1">
+        <v>76</v>
+      </c>
+      <c r="AN1" t="s" s="1">
+        <v>77</v>
+      </c>
+      <c r="AO1" t="s" s="1">
+        <v>78</v>
+      </c>
+      <c r="AP1" t="s" s="1">
+        <v>79</v>
+      </c>
+      <c r="AQ1" t="s" s="1">
+        <v>80</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AP2" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AQ2" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AP3" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AQ3" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>68</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AP4" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AQ4" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AP5" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AQ5" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AP6" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AQ6" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AP7" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AQ7" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AP8" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AQ8" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AP9" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AQ9" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>63</v>
+        <v>145</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="AP10" t="s" s="2">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="AQ10" t="s" s="2">
-        <v>119</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="O11" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="P11" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>38</v>
+        <v>157</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>117</v>
+        <v>160</v>
       </c>
       <c r="AP11" t="s" s="2">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="AQ11" t="s" s="2">
-        <v>125</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>71</v>
+        <v>151</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>129</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>132</v>
+        <v>81</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="AP12" t="s" s="2">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="AQ12" t="s" s="2">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>38</v>
+        <v>173</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>38</v>
+        <v>177</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>145</v>
+        <v>81</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="AP13" t="s" s="2">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="AQ13" t="s" s="2">
-        <v>38</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>75</v>
+        <v>174</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>155</v>
+        <v>81</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>158</v>
+        <v>81</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="AP14" t="s" s="2">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AQ14" t="s" s="2">
-        <v>161</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>162</v>
+        <v>191</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>162</v>
+        <v>191</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>166</v>
+        <v>195</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>167</v>
+        <v>118</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>162</v>
+        <v>191</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>38</v>
+        <v>198</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>159</v>
+        <v>202</v>
       </c>
       <c r="AP15" t="s" s="2">
-        <v>38</v>
+        <v>203</v>
       </c>
       <c r="AQ15" t="s" s="2">
-        <v>173</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>38</v>
+        <v>206</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>38</v>
+        <v>210</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>38</v>
+        <v>211</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>38</v>
+        <v>212</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>178</v>
+        <v>81</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="AQ16" t="s" s="2">
-        <v>184</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>186</v>
+        <v>81</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>38</v>
+        <v>224</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>38</v>
+        <v>226</v>
       </c>
       <c r="AQ17" t="s" s="2">
-        <v>38</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>195</v>
+        <v>228</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>195</v>
+        <v>228</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>38</v>
+        <v>229</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>196</v>
+        <v>230</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>198</v>
+        <v>232</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>195</v>
+        <v>228</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>202</v>
+        <v>236</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>203</v>
+        <v>81</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>38</v>
+        <v>237</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>204</v>
+        <v>81</v>
       </c>
       <c r="AQ18" t="s" s="2">
-        <v>205</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>200</v>
+        <v>243</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>211</v>
+        <v>244</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>213</v>
+        <v>246</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>214</v>
+        <v>81</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="AQ19" t="s" s="2">
-        <v>216</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>200</v>
+        <v>243</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>38</v>
+        <v>256</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>38</v>
+        <v>257</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>38</v>
+        <v>258</v>
       </c>
       <c r="AQ20" t="s" s="2">
-        <v>38</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>224</v>
+        <v>260</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>224</v>
+        <v>260</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>225</v>
+        <v>261</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>226</v>
+        <v>262</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>228</v>
+        <v>264</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>224</v>
+        <v>260</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>38</v>
+        <v>243</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AQ21" t="s" s="2">
-        <v>231</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>232</v>
+        <v>267</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>232</v>
+        <v>267</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>233</v>
+        <v>268</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>234</v>
+        <v>269</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>38</v>
+        <v>272</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AQ22" t="s" s="2">
-        <v>38</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>97</v>
+        <v>276</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>98</v>
+        <v>277</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>237</v>
+        <v>280</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AQ23" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>242</v>
+        <v>139</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>243</v>
+        <v>141</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>244</v>
+        <v>282</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>94</v>
+        <v>280</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AQ24" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>38</v>
+        <v>285</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>249</v>
+        <v>287</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="P25" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>251</v>
+        <v>81</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>252</v>
+        <v>81</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>247</v>
+        <v>289</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>63</v>
+        <v>145</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>253</v>
+        <v>81</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>254</v>
+        <v>137</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AQ25" t="s" s="2">
-        <v>255</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>256</v>
+        <v>290</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>256</v>
+        <v>290</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>257</v>
+        <v>114</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>38</v>
+        <v>294</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>38</v>
+        <v>295</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>256</v>
+        <v>290</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>261</v>
+        <v>297</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AQ26" t="s" s="2">
-        <v>262</v>
+        <v>298</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>233</v>
+        <v>300</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>38</v>
+        <v>303</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>269</v>
+        <v>81</v>
       </c>
       <c r="AQ27" t="s" s="2">
-        <v>270</v>
+        <v>305</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>149</v>
+        <v>276</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="P28" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>276</v>
+        <v>81</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>277</v>
+        <v>81</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>278</v>
+        <v>81</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>279</v>
+        <v>81</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>281</v>
+        <v>81</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="AQ28" t="s" s="2">
-        <v>283</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="P29" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>38</v>
+        <v>319</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>38</v>
+        <v>320</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>38</v>
+        <v>321</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>38</v>
+        <v>324</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>38</v>
+        <v>325</v>
       </c>
       <c r="AQ29" t="s" s="2">
-        <v>38</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>289</v>
+        <v>327</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>289</v>
+        <v>327</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>233</v>
+        <v>268</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>234</v>
+        <v>328</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>235</v>
+        <v>329</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>236</v>
+        <v>327</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>38</v>
+        <v>330</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>237</v>
+        <v>331</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AQ30" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>97</v>
+        <v>276</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>98</v>
+        <v>277</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>237</v>
+        <v>280</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AQ31" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>291</v>
+        <v>333</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>291</v>
+        <v>333</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>242</v>
+        <v>139</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>243</v>
+        <v>141</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>244</v>
+        <v>282</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>94</v>
+        <v>280</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AQ32" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>292</v>
+        <v>334</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>292</v>
+        <v>334</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>38</v>
+        <v>285</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>293</v>
+        <v>140</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="P33" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>63</v>
+        <v>145</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>296</v>
+        <v>81</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>288</v>
+        <v>137</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>297</v>
+        <v>81</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>298</v>
+        <v>81</v>
       </c>
       <c r="AQ33" t="s" s="2">
-        <v>299</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>233</v>
+        <v>336</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>234</v>
+        <v>337</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>235</v>
+        <v>338</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>236</v>
+        <v>335</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>38</v>
+        <v>339</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>38</v>
+        <v>340</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>237</v>
+        <v>331</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>38</v>
+        <v>341</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>38</v>
+        <v>342</v>
       </c>
       <c r="AQ34" t="s" s="2">
-        <v>38</v>
+        <v>343</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>301</v>
+        <v>344</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>301</v>
+        <v>344</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>97</v>
+        <v>276</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>98</v>
+        <v>277</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>302</v>
+        <v>81</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>303</v>
+        <v>81</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>304</v>
+        <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>237</v>
+        <v>280</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AQ35" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>305</v>
+        <v>345</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>305</v>
+        <v>345</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>306</v>
+        <v>141</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" t="s" s="2">
-        <v>308</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>309</v>
+        <v>81</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>310</v>
+        <v>81</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>311</v>
+        <v>81</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>38</v>
+        <v>346</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>38</v>
+        <v>347</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>38</v>
+        <v>348</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>312</v>
+        <v>283</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>63</v>
+        <v>145</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>313</v>
+        <v>280</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>314</v>
+        <v>81</v>
       </c>
       <c r="AQ36" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>316</v>
+        <v>350</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>317</v>
+        <v>351</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="P37" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>75</v>
+        <v>174</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>76</v>
+        <v>354</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>77</v>
+        <v>355</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>38</v>
+        <v>358</v>
       </c>
       <c r="AQ37" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>323</v>
+        <v>114</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="P38" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>38</v>
+        <v>363</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>328</v>
+        <v>364</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>330</v>
+        <v>81</v>
       </c>
       <c r="AQ38" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="P39" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>337</v>
+        <v>81</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>338</v>
+        <v>372</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>339</v>
+        <v>373</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>340</v>
+        <v>374</v>
       </c>
       <c r="AQ39" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>341</v>
+        <v>375</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>341</v>
+        <v>375</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>342</v>
+        <v>376</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>343</v>
+        <v>377</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>344</v>
+        <v>378</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>345</v>
+        <v>379</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>346</v>
+        <v>380</v>
       </c>
       <c r="P40" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>38</v>
+        <v>381</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>38</v>
+        <v>384</v>
       </c>
       <c r="AQ40" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>323</v>
+        <v>386</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="P41" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AQ41" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>233</v>
+        <v>367</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="O42" t="s" s="2">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="P42" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>360</v>
+        <v>81</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>362</v>
+        <v>399</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AQ42" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>363</v>
+        <v>400</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>363</v>
+        <v>400</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>364</v>
+        <v>276</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>365</v>
+        <v>401</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>366</v>
+        <v>402</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>367</v>
+        <v>403</v>
       </c>
       <c r="P43" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>38</v>
+        <v>404</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>368</v>
+        <v>405</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>348</v>
+        <v>406</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AQ43" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>369</v>
+        <v>407</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>369</v>
+        <v>407</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>370</v>
+        <v>408</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>371</v>
+        <v>409</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>411</v>
+      </c>
       <c r="P44" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>374</v>
+        <v>81</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>375</v>
+        <v>81</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>369</v>
+        <v>412</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>376</v>
+        <v>81</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>288</v>
+        <v>392</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>377</v>
+        <v>81</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AQ44" t="s" s="2">
-        <v>378</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>379</v>
+        <v>413</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>379</v>
+        <v>413</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>225</v>
+        <v>414</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>380</v>
+        <v>415</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>381</v>
+        <v>416</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>382</v>
+        <v>417</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>38</v>
+        <v>418</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>38</v>
+        <v>419</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>379</v>
+        <v>413</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>38</v>
+        <v>420</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>383</v>
+        <v>331</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>38</v>
+        <v>421</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AQ45" t="s" s="2">
-        <v>38</v>
+        <v>422</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>384</v>
+        <v>423</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>384</v>
+        <v>423</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>233</v>
+        <v>268</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>234</v>
+        <v>424</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>236</v>
+        <v>423</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>237</v>
+        <v>427</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AQ46" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>385</v>
+        <v>428</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>385</v>
+        <v>428</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>97</v>
+        <v>276</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>98</v>
+        <v>277</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>237</v>
+        <v>280</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AQ47" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>386</v>
+        <v>429</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>386</v>
+        <v>429</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>242</v>
+        <v>139</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>243</v>
+        <v>141</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>244</v>
+        <v>282</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>94</v>
+        <v>280</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AQ48" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>387</v>
+        <v>430</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>387</v>
+        <v>430</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>38</v>
+        <v>285</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>388</v>
+        <v>140</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>389</v>
+        <v>286</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="P49" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>387</v>
+        <v>289</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>63</v>
+        <v>145</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>391</v>
+        <v>81</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>392</v>
+        <v>81</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>393</v>
+        <v>137</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>394</v>
+        <v>81</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AQ49" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>395</v>
+        <v>431</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>395</v>
+        <v>431</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>149</v>
+        <v>432</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>396</v>
+        <v>433</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>398</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>399</v>
+        <v>81</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>400</v>
+        <v>81</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>395</v>
+        <v>431</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>38</v>
+        <v>435</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>401</v>
+        <v>436</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>402</v>
+        <v>437</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>38</v>
+        <v>438</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AQ50" t="s" s="2">
-        <v>403</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>404</v>
+        <v>439</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>404</v>
+        <v>439</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>405</v>
+        <v>192</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>406</v>
+        <v>440</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>441</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>442</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>38</v>
+        <v>210</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>38</v>
+        <v>443</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>38</v>
+        <v>444</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>404</v>
+        <v>439</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>408</v>
+        <v>445</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>409</v>
+        <v>446</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>410</v>
+        <v>81</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AQ51" t="s" s="2">
-        <v>411</v>
+        <v>447</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>412</v>
+        <v>448</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>412</v>
+        <v>448</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>149</v>
+        <v>449</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>413</v>
+        <v>450</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>414</v>
+        <v>451</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>415</v>
+        <v>81</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>416</v>
+        <v>81</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>412</v>
+        <v>448</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>417</v>
+        <v>452</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>418</v>
+        <v>453</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>419</v>
+        <v>454</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AQ52" t="s" s="2">
-        <v>420</v>
+        <v>455</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>421</v>
+        <v>456</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>421</v>
+        <v>456</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>422</v>
+        <v>457</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>425</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>167</v>
+        <v>210</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>426</v>
+        <v>459</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>427</v>
+        <v>460</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>421</v>
+        <v>456</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>417</v>
+        <v>461</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>418</v>
+        <v>462</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>417</v>
+        <v>463</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AQ53" t="s" s="2">
-        <v>428</v>
+        <v>464</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>429</v>
+        <v>465</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>429</v>
+        <v>465</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>430</v>
+        <v>192</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>431</v>
+        <v>466</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+        <v>467</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>469</v>
+      </c>
       <c r="P54" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>38</v>
+        <v>210</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>38</v>
+        <v>470</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>38</v>
+        <v>471</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>429</v>
+        <v>465</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>179</v>
+        <v>461</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>180</v>
+        <v>462</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>181</v>
+        <v>461</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AP54" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AQ54" t="s" s="2">
-        <v>433</v>
+        <v>472</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>434</v>
+        <v>473</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>434</v>
+        <v>473</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>435</v>
+        <v>474</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>436</v>
+        <v>475</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>438</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>434</v>
+        <v>473</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>439</v>
+        <v>222</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>440</v>
+        <v>223</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>441</v>
+        <v>224</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AP55" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AQ55" t="s" s="2">
-        <v>442</v>
+        <v>477</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="O56" s="2"/>
+      <c r="P56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AO56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ56" t="s" s="2">
+        <v>486</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AQ55">
+  <autoFilter ref="A1:AQ56">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8538,7 +8802,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI54">
+  <conditionalFormatting sqref="A2:AI55">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/ch-elm/StructureDefinition-PublishDocumentReference.xlsx
+++ b/ig/ch-elm/StructureDefinition-PublishDocumentReference.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-16T14:46:54+01:00</t>
+    <t>2024-01-31T12:59:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,8 @@
     <t>A profile on the DocumentReference resource with publication constraints: 
 - must be status current
 - must have an identifier
-- uses attachment.url to carry the document as a contained resource</t>
+- uses attachment.url to carry the document as a contained resource
+- validation according to http://fhir.ch/ig/ch-elm/StructureDefinition/ch-elm-document</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/ig/ch-elm/StructureDefinition-PublishDocumentReference.xlsx
+++ b/ig/ch-elm/StructureDefinition-PublishDocumentReference.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AQ$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AQ$57</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2222" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2261" uniqueCount="495">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T12:59:55+01:00</t>
+    <t>2024-02-27T13:26:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -441,10 +441,40 @@
     <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
+    <t xml:space="preserve">profile:$this}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>DomainResource.contained</t>
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>DocumentReference.contained:document</t>
+  </si>
+  <si>
+    <t>document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource {http://fhir.ch/ig/ch-elm/StructureDefinition/ch-elm-document}
+</t>
+  </si>
+  <si>
+    <t>CH ELM Document: Laboratory Report</t>
+  </si>
+  <si>
+    <t>A container for a collection of resources.</t>
+  </si>
+  <si>
+    <t>bdl-1:total only when a search or history {total.empty() or (type = 'searchset') or (type = 'history')}
+bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}ch-lab-bdl1:The resource should be conform to the corresponding EU LAB profile {conformsTo('http://hl7.eu/fhir/laboratory/StructureDefinition/Bundle-eu-lab')}ch-elm-leading-code:The ServiceRequest.code and the Observation.code are in general equal. {entry.resource.ofType(ServiceRequest).code = entry.resource.ofType(Observation).code}</t>
+  </si>
+  <si>
+    <t>ClinicalDocument, if bundle.type = document</t>
   </si>
   <si>
     <t>DocumentReference.extension</t>
@@ -1072,7 +1102,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ch-elm-urlconformstochelmbundle:Must have a resolvable URL conforming to the CH-ELM Bundle. {url.exists() and url.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ch-elm-document')}</t>
+ch-elm-resolveableurl:Must have a resolvable URL. {url.exists() and url.resolve()}</t>
   </si>
   <si>
     <t>Composition.language, 
@@ -1100,9 +1130,6 @@
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
   </si>
   <si>
     <t>DocumentReference.content.attachment.contentType</t>
@@ -1851,7 +1878,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AQ56"/>
+  <dimension ref="A1:AQ57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2784,7 +2811,7 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>83</v>
@@ -2846,19 +2873,17 @@
         <v>81</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC8" s="2"/>
       <c r="AD8" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>82</v>
@@ -2879,7 +2904,7 @@
         <v>81</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>81</v>
@@ -2896,24 +2921,26 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="D9" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>81</v>
@@ -2922,16 +2949,16 @@
         <v>81</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2981,7 +3008,7 @@
         <v>81</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>82</v>
@@ -3002,16 +3029,16 @@
         <v>81</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP9" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AQ9" t="s" s="2">
         <v>81</v>
@@ -3019,41 +3046,43 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N10" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>81</v>
@@ -3102,7 +3131,7 @@
         <v>81</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>82</v>
@@ -3114,7 +3143,7 @@
         <v>81</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>81</v>
@@ -3123,7 +3152,7 @@
         <v>81</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>81</v>
@@ -3140,10 +3169,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3154,32 +3183,28 @@
         <v>82</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>81</v>
       </c>
@@ -3227,48 +3252,48 @@
         <v>81</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>157</v>
+        <v>81</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>158</v>
+        <v>81</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>160</v>
+        <v>81</v>
       </c>
       <c r="AP11" t="s" s="2">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="AQ11" t="s" s="2">
-        <v>162</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3276,7 +3301,7 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>94</v>
@@ -3291,16 +3316,20 @@
         <v>95</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="O12" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="M12" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>81</v>
       </c>
@@ -3348,13 +3377,13 @@
         <v>81</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>81</v>
@@ -3363,33 +3392,33 @@
         <v>106</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>81</v>
+        <v>166</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AP12" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AQ12" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3406,23 +3435,21 @@
         <v>81</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>114</v>
+        <v>160</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>81</v>
@@ -3432,7 +3459,7 @@
         <v>81</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>173</v>
+        <v>81</v>
       </c>
       <c r="T13" t="s" s="2">
         <v>81</v>
@@ -3447,13 +3474,13 @@
         <v>81</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>174</v>
+        <v>81</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>176</v>
+        <v>81</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>81</v>
@@ -3471,13 +3498,13 @@
         <v>81</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>81</v>
@@ -3486,33 +3513,33 @@
         <v>106</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM13" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AN13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO13" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AP13" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AQ13" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO13" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AP13" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AQ13" t="s" s="2">
-        <v>181</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3520,16 +3547,16 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>95</v>
@@ -3538,13 +3565,13 @@
         <v>114</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3555,7 +3582,7 @@
         <v>81</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>81</v>
+        <v>182</v>
       </c>
       <c r="T14" t="s" s="2">
         <v>81</v>
@@ -3570,13 +3597,13 @@
         <v>81</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>81</v>
@@ -3594,10 +3621,10 @@
         <v>81</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>94</v>
@@ -3609,25 +3636,25 @@
         <v>106</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>81</v>
+        <v>186</v>
       </c>
       <c r="AL14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM14" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AN14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO14" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AP14" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AN14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO14" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AP14" t="s" s="2">
+      <c r="AQ14" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AQ14" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="15" hidden="true">
@@ -3646,7 +3673,7 @@
         <v>82</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>81</v>
@@ -3658,16 +3685,16 @@
         <v>95</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3693,13 +3720,13 @@
         <v>81</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>118</v>
+        <v>183</v>
       </c>
       <c r="Y15" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="Z15" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>81</v>
@@ -3732,44 +3759,44 @@
         <v>106</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO15" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AP15" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AM15" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AP15" t="s" s="2">
-        <v>203</v>
-      </c>
       <c r="AQ15" t="s" s="2">
-        <v>204</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>206</v>
+        <v>81</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>81</v>
@@ -3781,16 +3808,16 @@
         <v>95</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3816,13 +3843,13 @@
         <v>81</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>210</v>
+        <v>118</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>81</v>
@@ -3840,13 +3867,13 @@
         <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>81</v>
@@ -3855,44 +3882,44 @@
         <v>106</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>81</v>
+        <v>207</v>
       </c>
       <c r="AL16" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AM16" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AN16" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AO16" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AP16" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AQ16" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AP16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AQ16" t="s" s="2">
-        <v>216</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>81</v>
+        <v>215</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>81</v>
@@ -3904,15 +3931,17 @@
         <v>95</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="L17" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>81</v>
@@ -3937,13 +3966,13 @@
         <v>81</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>81</v>
+        <v>219</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>81</v>
+        <v>220</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>81</v>
+        <v>221</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>81</v>
@@ -3961,13 +3990,13 @@
         <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>81</v>
@@ -3976,7 +4005,7 @@
         <v>106</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>221</v>
+        <v>81</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>222</v>
@@ -3988,25 +4017,25 @@
         <v>224</v>
       </c>
       <c r="AO17" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AP17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ17" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AP17" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="AQ17" t="s" s="2">
-        <v>227</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>229</v>
+        <v>81</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -4016,7 +4045,7 @@
         <v>94</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>81</v>
@@ -4025,17 +4054,15 @@
         <v>95</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>81</v>
@@ -4084,7 +4111,7 @@
         <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>82</v>
@@ -4099,47 +4126,47 @@
         <v>106</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AN18" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AO18" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AP18" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AQ18" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="AP18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AQ18" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>81</v>
+        <v>238</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>81</v>
@@ -4207,13 +4234,13 @@
         <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>81</v>
@@ -4231,24 +4258,24 @@
         <v>245</v>
       </c>
       <c r="AN19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO19" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AO19" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AP19" t="s" s="2">
-        <v>247</v>
+        <v>81</v>
       </c>
       <c r="AQ19" t="s" s="2">
-        <v>248</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4259,7 +4286,7 @@
         <v>82</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>81</v>
@@ -4268,19 +4295,19 @@
         <v>81</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4330,13 +4357,13 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>81</v>
@@ -4345,33 +4372,33 @@
         <v>106</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="AL20" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AN20" t="s" s="2">
+      <c r="AO20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP20" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="AO20" t="s" s="2">
+      <c r="AQ20" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="AP20" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="AQ20" t="s" s="2">
-        <v>259</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4394,16 +4421,16 @@
         <v>81</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4453,7 +4480,7 @@
         <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>82</v>
@@ -4468,33 +4495,33 @@
         <v>106</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="AL21" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AO21" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="AN21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AP21" t="s" s="2">
-        <v>81</v>
+        <v>267</v>
       </c>
       <c r="AQ21" t="s" s="2">
-        <v>81</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4505,28 +4532,28 @@
         <v>82</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4576,13 +4603,13 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>81</v>
@@ -4591,13 +4618,13 @@
         <v>106</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>81</v>
+        <v>252</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>81</v>
@@ -4609,15 +4636,15 @@
         <v>81</v>
       </c>
       <c r="AQ22" t="s" s="2">
-        <v>274</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4628,27 +4655,29 @@
         <v>82</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>81</v>
@@ -4697,28 +4726,28 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>81</v>
+        <v>281</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>81</v>
@@ -4730,26 +4759,26 @@
         <v>81</v>
       </c>
       <c r="AQ23" t="s" s="2">
-        <v>81</v>
+        <v>283</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>81</v>
@@ -4761,17 +4790,15 @@
         <v>81</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>140</v>
+        <v>285</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>141</v>
+        <v>286</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>81</v>
@@ -4820,19 +4847,19 @@
         <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>145</v>
+        <v>81</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>81</v>
@@ -4841,7 +4868,7 @@
         <v>81</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>81</v>
@@ -4858,14 +4885,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>285</v>
+        <v>148</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4878,26 +4905,24 @@
         <v>81</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>286</v>
+        <v>150</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>81</v>
       </c>
@@ -4945,7 +4970,7 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>82</v>
@@ -4957,7 +4982,7 @@
         <v>81</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>81</v>
@@ -4966,7 +4991,7 @@
         <v>81</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>137</v>
+        <v>289</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>81</v>
@@ -4983,44 +5008,46 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>81</v>
+        <v>294</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="O26" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>81</v>
       </c>
@@ -5044,13 +5071,13 @@
         <v>81</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>174</v>
+        <v>81</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>294</v>
+        <v>81</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>295</v>
+        <v>81</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>81</v>
@@ -5068,28 +5095,28 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>296</v>
+        <v>81</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>297</v>
+        <v>139</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>81</v>
@@ -5101,7 +5128,7 @@
         <v>81</v>
       </c>
       <c r="AQ26" t="s" s="2">
-        <v>298</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" hidden="true">
@@ -5132,15 +5159,17 @@
         <v>95</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>81</v>
@@ -5165,13 +5194,13 @@
         <v>81</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>81</v>
+        <v>183</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>81</v>
+        <v>303</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>81</v>
+        <v>304</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>81</v>
@@ -5207,10 +5236,10 @@
         <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>81</v>
@@ -5222,15 +5251,15 @@
         <v>81</v>
       </c>
       <c r="AQ27" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5238,7 +5267,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>94</v>
@@ -5253,20 +5282,16 @@
         <v>95</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>81</v>
       </c>
@@ -5314,10 +5339,10 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>94</v>
@@ -5332,10 +5357,10 @@
         <v>81</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>81</v>
+        <v>312</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>81</v>
@@ -5344,18 +5369,18 @@
         <v>81</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>312</v>
+        <v>81</v>
       </c>
       <c r="AQ28" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5366,10 +5391,10 @@
         <v>82</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>81</v>
@@ -5378,19 +5403,19 @@
         <v>95</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>192</v>
+        <v>285</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>81</v>
@@ -5415,13 +5440,13 @@
         <v>81</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>319</v>
+        <v>81</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>320</v>
+        <v>81</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>321</v>
+        <v>81</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>81</v>
@@ -5439,13 +5464,13 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>81</v>
@@ -5457,30 +5482,30 @@
         <v>81</v>
       </c>
       <c r="AL29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AN29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP29" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AQ29" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP29" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AQ29" t="s" s="2">
-        <v>326</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5488,13 +5513,13 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>81</v>
@@ -5503,16 +5528,20 @@
         <v>95</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>268</v>
+        <v>201</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>81</v>
       </c>
@@ -5536,13 +5565,13 @@
         <v>81</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>81</v>
+        <v>328</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>81</v>
+        <v>329</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>81</v>
+        <v>330</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>81</v>
@@ -5560,10 +5589,10 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>83</v>
@@ -5578,30 +5607,30 @@
         <v>81</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>81</v>
+        <v>333</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>81</v>
+        <v>334</v>
       </c>
       <c r="AQ30" t="s" s="2">
-        <v>81</v>
+        <v>335</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5609,7 +5638,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>94</v>
@@ -5621,16 +5650,16 @@
         <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>277</v>
+        <v>337</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>278</v>
+        <v>338</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5681,28 +5710,28 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>279</v>
+        <v>336</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>81</v>
+        <v>339</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>280</v>
+        <v>340</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>81</v>
@@ -5719,21 +5748,21 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>81</v>
@@ -5745,17 +5774,15 @@
         <v>81</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>140</v>
+        <v>285</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>141</v>
+        <v>286</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>81</v>
@@ -5804,19 +5831,19 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>145</v>
+        <v>81</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>81</v>
@@ -5825,7 +5852,7 @@
         <v>81</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>81</v>
@@ -5842,14 +5869,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>285</v>
+        <v>148</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5862,26 +5889,24 @@
         <v>81</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>286</v>
+        <v>150</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>81</v>
       </c>
@@ -5929,7 +5954,7 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>82</v>
@@ -5941,7 +5966,7 @@
         <v>81</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>81</v>
@@ -5950,7 +5975,7 @@
         <v>81</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>137</v>
+        <v>289</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>81</v>
@@ -5967,42 +5992,46 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>81</v>
+        <v>294</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>336</v>
+        <v>149</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>337</v>
+        <v>295</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>81</v>
       </c>
@@ -6050,40 +6079,40 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>335</v>
+        <v>298</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>339</v>
+        <v>154</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>340</v>
+        <v>81</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>331</v>
+        <v>139</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>341</v>
+        <v>81</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>342</v>
+        <v>81</v>
       </c>
       <c r="AQ34" t="s" s="2">
-        <v>343</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" hidden="true">
@@ -6099,7 +6128,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>94</v>
@@ -6111,16 +6140,16 @@
         <v>81</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>276</v>
+        <v>345</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>277</v>
+        <v>346</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>278</v>
+        <v>347</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6171,10 +6200,10 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>279</v>
+        <v>344</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>94</v>
@@ -6183,47 +6212,47 @@
         <v>81</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>81</v>
+        <v>348</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>81</v>
+        <v>349</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>280</v>
+        <v>340</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>81</v>
+        <v>350</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="AQ35" t="s" s="2">
-        <v>81</v>
+        <v>352</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>81</v>
@@ -6235,17 +6264,15 @@
         <v>81</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>140</v>
+        <v>285</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>141</v>
+        <v>286</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>81</v>
@@ -6282,31 +6309,31 @@
         <v>81</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>346</v>
+        <v>81</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>347</v>
+        <v>81</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>348</v>
+        <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>145</v>
+        <v>81</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>81</v>
@@ -6315,7 +6342,7 @@
         <v>81</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
@@ -6332,21 +6359,21 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>81</v>
@@ -6355,21 +6382,21 @@
         <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>81</v>
       </c>
@@ -6381,7 +6408,7 @@
         <v>81</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>353</v>
+        <v>81</v>
       </c>
       <c r="U37" t="s" s="2">
         <v>81</v>
@@ -6393,43 +6420,43 @@
         <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>174</v>
+        <v>81</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>354</v>
+        <v>81</v>
       </c>
       <c r="Z37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB37" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="AA37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AC37" t="s" s="2">
-        <v>81</v>
+        <v>356</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>356</v>
+        <v>292</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>81</v>
@@ -6438,7 +6465,7 @@
         <v>81</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>357</v>
+        <v>289</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
@@ -6447,7 +6474,7 @@
         <v>81</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>358</v>
+        <v>81</v>
       </c>
       <c r="AQ37" t="s" s="2">
         <v>81</v>
@@ -6455,10 +6482,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6472,7 +6499,7 @@
         <v>94</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>81</v>
@@ -6484,14 +6511,14 @@
         <v>114</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>81</v>
@@ -6504,25 +6531,25 @@
         <v>81</v>
       </c>
       <c r="T38" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="Z38" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>81</v>
@@ -6570,7 +6597,7 @@
         <v>81</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>81</v>
+        <v>366</v>
       </c>
       <c r="AQ38" t="s" s="2">
         <v>81</v>
@@ -6578,10 +6605,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6595,16 +6622,16 @@
         <v>94</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>367</v>
+        <v>114</v>
       </c>
       <c r="L39" t="s" s="2">
         <v>368</v>
@@ -6612,11 +6639,9 @@
       <c r="M39" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>81</v>
@@ -6629,7 +6654,7 @@
         <v>81</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>81</v>
+        <v>371</v>
       </c>
       <c r="U39" t="s" s="2">
         <v>81</v>
@@ -6641,13 +6666,13 @@
         <v>81</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>81</v>
@@ -6695,7 +6720,7 @@
         <v>81</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>374</v>
+        <v>81</v>
       </c>
       <c r="AQ39" t="s" s="2">
         <v>81</v>
@@ -6703,10 +6728,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6714,7 +6739,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>94</v>
@@ -6726,22 +6751,22 @@
         <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="N40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>81</v>
@@ -6754,7 +6779,7 @@
         <v>81</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>381</v>
+        <v>81</v>
       </c>
       <c r="U40" t="s" s="2">
         <v>81</v>
@@ -6790,7 +6815,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>82</v>
@@ -6811,7 +6836,7 @@
         <v>81</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -6820,7 +6845,7 @@
         <v>81</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AQ40" t="s" s="2">
         <v>81</v>
@@ -6828,10 +6853,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6839,7 +6864,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>94</v>
@@ -6854,19 +6879,19 @@
         <v>95</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>81</v>
@@ -6879,7 +6904,7 @@
         <v>81</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>81</v>
+        <v>389</v>
       </c>
       <c r="U41" t="s" s="2">
         <v>81</v>
@@ -6915,7 +6940,7 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>82</v>
@@ -6936,16 +6961,16 @@
         <v>81</v>
       </c>
       <c r="AM41" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP41" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP41" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AQ41" t="s" s="2">
         <v>81</v>
@@ -6979,19 +7004,19 @@
         <v>95</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>367</v>
+        <v>394</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>81</v>
@@ -7040,7 +7065,7 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>82</v>
@@ -7061,7 +7086,7 @@
         <v>81</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -7078,10 +7103,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7104,17 +7129,19 @@
         <v>95</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>276</v>
+        <v>375</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>403</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>404</v>
+      </c>
       <c r="O43" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>81</v>
@@ -7127,7 +7154,7 @@
         <v>81</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>404</v>
+        <v>81</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>81</v>
@@ -7163,7 +7190,7 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>82</v>
@@ -7184,7 +7211,7 @@
         <v>81</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
@@ -7201,10 +7228,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7218,7 +7245,7 @@
         <v>94</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>81</v>
@@ -7227,7 +7254,7 @@
         <v>95</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>408</v>
+        <v>285</v>
       </c>
       <c r="L44" t="s" s="2">
         <v>409</v>
@@ -7250,7 +7277,7 @@
         <v>81</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>81</v>
+        <v>412</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>81</v>
@@ -7286,7 +7313,7 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>82</v>
@@ -7307,7 +7334,7 @@
         <v>81</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>392</v>
+        <v>414</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
@@ -7324,10 +7351,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7341,7 +7368,7 @@
         <v>94</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>81</v>
@@ -7350,18 +7377,18 @@
         <v>95</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="O45" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>81</v>
       </c>
@@ -7385,13 +7412,13 @@
         <v>81</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>418</v>
+        <v>81</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>419</v>
+        <v>81</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>81</v>
@@ -7409,7 +7436,7 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>82</v>
@@ -7427,13 +7454,13 @@
         <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>420</v>
+        <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>331</v>
+        <v>400</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>421</v>
+        <v>81</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>81</v>
@@ -7442,15 +7469,15 @@
         <v>81</v>
       </c>
       <c r="AQ45" t="s" s="2">
-        <v>422</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7473,16 +7500,16 @@
         <v>95</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>268</v>
+        <v>422</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7508,13 +7535,13 @@
         <v>81</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>81</v>
+        <v>426</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>81</v>
+        <v>427</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>81</v>
@@ -7532,7 +7559,7 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>82</v>
@@ -7550,13 +7577,13 @@
         <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>81</v>
+        <v>428</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>427</v>
+        <v>340</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>81</v>
+        <v>429</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>81</v>
@@ -7565,15 +7592,15 @@
         <v>81</v>
       </c>
       <c r="AQ46" t="s" s="2">
-        <v>81</v>
+        <v>430</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7593,18 +7620,20 @@
         <v>81</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>277</v>
+        <v>432</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>433</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>434</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>81</v>
@@ -7653,7 +7682,7 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>279</v>
+        <v>431</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>82</v>
@@ -7665,7 +7694,7 @@
         <v>81</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>81</v>
@@ -7674,7 +7703,7 @@
         <v>81</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>280</v>
+        <v>435</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>81</v>
@@ -7691,21 +7720,21 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>81</v>
@@ -7717,17 +7746,15 @@
         <v>81</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>140</v>
+        <v>285</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>141</v>
+        <v>286</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>81</v>
@@ -7776,19 +7803,19 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>145</v>
+        <v>81</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>81</v>
@@ -7797,7 +7824,7 @@
         <v>81</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>81</v>
@@ -7814,14 +7841,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>285</v>
+        <v>148</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7834,26 +7861,24 @@
         <v>81</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>286</v>
+        <v>150</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>81</v>
       </c>
@@ -7901,7 +7926,7 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>82</v>
@@ -7913,7 +7938,7 @@
         <v>81</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>81</v>
@@ -7922,7 +7947,7 @@
         <v>81</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>137</v>
+        <v>289</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>81</v>
@@ -7939,14 +7964,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>81</v>
+        <v>294</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7959,22 +7984,26 @@
         <v>81</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>432</v>
+        <v>149</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>433</v>
+        <v>295</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>81</v>
       </c>
@@ -8022,7 +8051,7 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>431</v>
+        <v>298</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>82</v>
@@ -8034,22 +8063,22 @@
         <v>81</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>435</v>
+        <v>81</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>436</v>
+        <v>81</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>437</v>
+        <v>139</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>438</v>
+        <v>81</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>81</v>
@@ -8086,17 +8115,15 @@
         <v>81</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>192</v>
+        <v>440</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="N51" t="s" s="2">
         <v>442</v>
       </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>81</v>
@@ -8121,13 +8148,13 @@
         <v>81</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>210</v>
+        <v>81</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>443</v>
+        <v>81</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>444</v>
+        <v>81</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>81</v>
@@ -8160,33 +8187,33 @@
         <v>106</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>81</v>
+        <v>443</v>
       </c>
       <c r="AL51" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="AM51" t="s" s="2">
+      <c r="AN51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO51" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="AN51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AP51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AQ51" t="s" s="2">
-        <v>447</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8197,7 +8224,7 @@
         <v>82</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>81</v>
@@ -8206,18 +8233,20 @@
         <v>81</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="M52" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>81</v>
@@ -8242,13 +8271,13 @@
         <v>81</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>81</v>
+        <v>219</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>81</v>
+        <v>451</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>81</v>
+        <v>452</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>81</v>
@@ -8266,13 +8295,13 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>81</v>
@@ -8284,13 +8313,13 @@
         <v>81</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>454</v>
+        <v>81</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>81</v>
@@ -8327,16 +8356,16 @@
         <v>81</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>192</v>
+        <v>457</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8363,13 +8392,13 @@
         <v>81</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>210</v>
+        <v>81</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>459</v>
+        <v>81</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>460</v>
+        <v>81</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>81</v>
@@ -8405,30 +8434,30 @@
         <v>81</v>
       </c>
       <c r="AL53" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="AM53" t="s" s="2">
+      <c r="AN53" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="AN53" t="s" s="2">
+      <c r="AO53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ53" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AQ53" t="s" s="2">
-        <v>464</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8451,20 +8480,16 @@
         <v>81</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="M54" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>469</v>
-      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>81</v>
       </c>
@@ -8488,13 +8513,13 @@
         <v>81</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>81</v>
@@ -8512,7 +8537,7 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>82</v>
@@ -8530,13 +8555,13 @@
         <v>81</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>81</v>
@@ -8576,16 +8601,20 @@
         <v>81</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>477</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>81</v>
       </c>
@@ -8609,13 +8638,13 @@
         <v>81</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>81</v>
+        <v>219</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>81</v>
+        <v>478</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>81</v>
+        <v>479</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>81</v>
@@ -8651,13 +8680,13 @@
         <v>81</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>222</v>
+        <v>469</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>223</v>
+        <v>470</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>224</v>
+        <v>469</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>81</v>
@@ -8666,15 +8695,15 @@
         <v>81</v>
       </c>
       <c r="AQ55" t="s" s="2">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8685,7 +8714,7 @@
         <v>82</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>81</v>
@@ -8697,17 +8726,15 @@
         <v>81</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>482</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>81</v>
@@ -8756,13 +8783,13 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>81</v>
@@ -8774,26 +8801,149 @@
         <v>81</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>483</v>
+        <v>231</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>484</v>
+        <v>232</v>
       </c>
       <c r="AN56" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AO56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ56" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="AO56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AQ56" t="s" s="2">
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
         <v>486</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="O57" s="2"/>
+      <c r="P57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ57" t="s" s="2">
+        <v>494</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AQ56">
+  <autoFilter ref="A1:AQ57">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8803,7 +8953,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI55">
+  <conditionalFormatting sqref="A2:AI56">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/ch-elm/StructureDefinition-PublishDocumentReference.xlsx
+++ b/ig/ch-elm/StructureDefinition-PublishDocumentReference.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-27T13:26:20+01:00</t>
+    <t>2024-03-28T10:46:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-PublishDocumentReference.xlsx
+++ b/ig/ch-elm/StructureDefinition-PublishDocumentReference.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2261" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2261" uniqueCount="494">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T10:46:20+01:00</t>
+    <t>2024-05-17T13:32:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Federal Office of Public Health FOPH (https://www.bag.admin.ch/bag/en/home/das-bag/kontakt-standort.html)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -468,10 +468,6 @@
   </si>
   <si>
     <t>A container for a collection of resources.</t>
-  </si>
-  <si>
-    <t>bdl-1:total only when a search or history {total.empty() or (type = 'searchset') or (type = 'history')}
-bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}ch-lab-bdl1:The resource should be conform to the corresponding EU LAB profile {conformsTo('http://hl7.eu/fhir/laboratory/StructureDefinition/Bundle-eu-lab')}ch-elm-leading-code:The ServiceRequest.code and the Observation.code are in general equal. {entry.resource.ofType(ServiceRequest).code = entry.resource.ofType(Observation).code}</t>
   </si>
   <si>
     <t>ClinicalDocument, if bundle.type = document</t>
@@ -1887,17 +1883,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="48.453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="48.453125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="50.828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="74.63671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="77.93359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1906,29 +1902,29 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="35.75" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="70.828125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="57.93359375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="42.265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="35.69140625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="74.265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="57.0" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="44.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="50.64453125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="52.0078125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="81.69140625" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" width="155.44140625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="84.2265625" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="162.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3020,7 +3016,7 @@
         <v>81</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>145</v>
+        <v>81</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>81</v>
@@ -3032,7 +3028,7 @@
         <v>139</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>81</v>
@@ -3046,14 +3042,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -3072,16 +3068,16 @@
         <v>81</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -3131,7 +3127,7 @@
         <v>81</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>82</v>
@@ -3143,7 +3139,7 @@
         <v>81</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>81</v>
@@ -3169,10 +3165,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3195,13 +3191,13 @@
         <v>81</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L11" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3252,7 +3248,7 @@
         <v>81</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>82</v>
@@ -3264,7 +3260,7 @@
         <v>81</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>81</v>
@@ -3290,10 +3286,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3316,19 +3312,19 @@
         <v>95</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="N12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>81</v>
@@ -3377,7 +3373,7 @@
         <v>81</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>82</v>
@@ -3392,33 +3388,33 @@
         <v>106</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="AM12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AN12" t="s" s="2">
+      <c r="AO12" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="AO12" t="s" s="2">
+      <c r="AP12" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="AP12" t="s" s="2">
+      <c r="AQ12" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AQ12" t="s" s="2">
-        <v>171</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3441,13 +3437,13 @@
         <v>95</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3498,7 +3494,7 @@
         <v>81</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>82</v>
@@ -3513,33 +3509,33 @@
         <v>106</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM13" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AN13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO13" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AP13" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AN13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO13" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AP13" t="s" s="2">
+      <c r="AQ13" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="AQ13" t="s" s="2">
-        <v>177</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3565,13 +3561,13 @@
         <v>114</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3582,29 +3578,29 @@
         <v>81</v>
       </c>
       <c r="S14" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="T14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>185</v>
-      </c>
       <c r="AA14" t="s" s="2">
         <v>81</v>
       </c>
@@ -3621,7 +3617,7 @@
         <v>81</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>94</v>
@@ -3636,33 +3632,33 @@
         <v>106</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM14" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="AL14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO14" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AN14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO14" t="s" s="2">
+      <c r="AP14" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AP14" t="s" s="2">
+      <c r="AQ14" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AQ14" t="s" s="2">
-        <v>190</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3688,13 +3684,13 @@
         <v>114</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3720,14 +3716,14 @@
         <v>81</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Y15" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="Z15" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>196</v>
-      </c>
       <c r="AA15" t="s" s="2">
         <v>81</v>
       </c>
@@ -3744,7 +3740,7 @@
         <v>81</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>82</v>
@@ -3762,19 +3758,19 @@
         <v>81</v>
       </c>
       <c r="AL15" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO15" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AP15" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AP15" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="AQ15" t="s" s="2">
         <v>81</v>
@@ -3782,10 +3778,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3808,16 +3804,16 @@
         <v>95</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3846,11 +3842,11 @@
         <v>118</v>
       </c>
       <c r="Y16" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="Z16" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="Z16" t="s" s="2">
-        <v>206</v>
-      </c>
       <c r="AA16" t="s" s="2">
         <v>81</v>
       </c>
@@ -3867,7 +3863,7 @@
         <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>82</v>
@@ -3882,37 +3878,37 @@
         <v>106</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AO16" t="s" s="2">
+      <c r="AP16" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AP16" t="s" s="2">
+      <c r="AQ16" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AQ16" t="s" s="2">
-        <v>213</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3931,16 +3927,16 @@
         <v>95</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3966,14 +3962,14 @@
         <v>81</v>
       </c>
       <c r="X17" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="Y17" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="Y17" t="s" s="2">
+      <c r="Z17" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="Z17" t="s" s="2">
-        <v>221</v>
-      </c>
       <c r="AA17" t="s" s="2">
         <v>81</v>
       </c>
@@ -3990,7 +3986,7 @@
         <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>82</v>
@@ -4008,30 +4004,30 @@
         <v>81</v>
       </c>
       <c r="AL17" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AN17" t="s" s="2">
+      <c r="AO17" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AP17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ17" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AP17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AQ17" t="s" s="2">
-        <v>225</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4054,13 +4050,13 @@
         <v>95</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4111,7 +4107,7 @@
         <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>82</v>
@@ -4126,37 +4122,37 @@
         <v>106</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="AN18" t="s" s="2">
+      <c r="AO18" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="AO18" t="s" s="2">
+      <c r="AP18" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="AP18" t="s" s="2">
+      <c r="AQ18" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AQ18" t="s" s="2">
-        <v>236</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -4175,16 +4171,16 @@
         <v>95</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4234,7 +4230,7 @@
         <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>82</v>
@@ -4249,19 +4245,19 @@
         <v>106</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO19" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>81</v>
@@ -4272,10 +4268,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4298,16 +4294,16 @@
         <v>95</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4357,7 +4353,7 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>82</v>
@@ -4372,33 +4368,33 @@
         <v>106</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AN20" t="s" s="2">
+      <c r="AO20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP20" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AO20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP20" t="s" s="2">
+      <c r="AQ20" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="AQ20" t="s" s="2">
-        <v>257</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4421,16 +4417,16 @@
         <v>81</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4480,7 +4476,7 @@
         <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>82</v>
@@ -4495,33 +4491,33 @@
         <v>106</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AL21" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="AN21" t="s" s="2">
+      <c r="AO21" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="AO21" t="s" s="2">
+      <c r="AP21" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="AP21" t="s" s="2">
+      <c r="AQ21" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="AQ21" t="s" s="2">
-        <v>268</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4544,16 +4540,16 @@
         <v>81</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4603,7 +4599,7 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>82</v>
@@ -4618,13 +4614,13 @@
         <v>106</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AL22" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>81</v>
@@ -4641,10 +4637,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4667,16 +4663,16 @@
         <v>95</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4726,7 +4722,7 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>82</v>
@@ -4744,30 +4740,30 @@
         <v>81</v>
       </c>
       <c r="AL23" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ23" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AQ23" t="s" s="2">
-        <v>283</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4790,13 +4786,13 @@
         <v>81</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4847,7 +4843,7 @@
         <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>82</v>
@@ -4868,7 +4864,7 @@
         <v>81</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>81</v>
@@ -4885,14 +4881,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4911,16 +4907,16 @@
         <v>81</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L25" t="s" s="2">
-        <v>150</v>
-      </c>
       <c r="M25" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4970,7 +4966,7 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>82</v>
@@ -4982,7 +4978,7 @@
         <v>81</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>81</v>
@@ -4991,7 +4987,7 @@
         <v>81</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>81</v>
@@ -5008,14 +5004,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -5034,19 +5030,19 @@
         <v>95</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O26" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>81</v>
@@ -5095,7 +5091,7 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>82</v>
@@ -5107,7 +5103,7 @@
         <v>81</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>81</v>
@@ -5133,10 +5129,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5162,13 +5158,13 @@
         <v>114</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5194,14 +5190,14 @@
         <v>81</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Y27" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="Z27" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="Z27" t="s" s="2">
-        <v>304</v>
-      </c>
       <c r="AA27" t="s" s="2">
         <v>81</v>
       </c>
@@ -5218,7 +5214,7 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>94</v>
@@ -5236,30 +5232,30 @@
         <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ27" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AQ27" t="s" s="2">
-        <v>307</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5282,13 +5278,13 @@
         <v>95</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5339,7 +5335,7 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>94</v>
@@ -5357,30 +5353,30 @@
         <v>81</v>
       </c>
       <c r="AL28" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ28" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AQ28" t="s" s="2">
-        <v>314</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5403,19 +5399,19 @@
         <v>95</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="N29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>81</v>
@@ -5464,7 +5460,7 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>82</v>
@@ -5485,27 +5481,27 @@
         <v>81</v>
       </c>
       <c r="AM29" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AN29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP29" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="AN29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP29" t="s" s="2">
+      <c r="AQ29" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="AQ29" t="s" s="2">
-        <v>322</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5528,19 +5524,19 @@
         <v>95</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>81</v>
@@ -5565,14 +5561,14 @@
         <v>81</v>
       </c>
       <c r="X30" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="Y30" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="Y30" t="s" s="2">
+      <c r="Z30" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="Z30" t="s" s="2">
-        <v>330</v>
-      </c>
       <c r="AA30" t="s" s="2">
         <v>81</v>
       </c>
@@ -5589,7 +5585,7 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>82</v>
@@ -5607,30 +5603,30 @@
         <v>81</v>
       </c>
       <c r="AL30" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="AN30" t="s" s="2">
+      <c r="AO30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP30" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="AO30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP30" t="s" s="2">
+      <c r="AQ30" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="AQ30" t="s" s="2">
-        <v>335</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5653,13 +5649,13 @@
         <v>95</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5710,7 +5706,7 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>94</v>
@@ -5728,10 +5724,10 @@
         <v>81</v>
       </c>
       <c r="AL31" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>81</v>
@@ -5748,10 +5744,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5774,13 +5770,13 @@
         <v>81</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5831,7 +5827,7 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>82</v>
@@ -5852,7 +5848,7 @@
         <v>81</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>81</v>
@@ -5869,14 +5865,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5895,16 +5891,16 @@
         <v>81</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L33" t="s" s="2">
-        <v>150</v>
-      </c>
       <c r="M33" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5954,7 +5950,7 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>82</v>
@@ -5966,7 +5962,7 @@
         <v>81</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>81</v>
@@ -5975,7 +5971,7 @@
         <v>81</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>81</v>
@@ -5992,14 +5988,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -6018,19 +6014,19 @@
         <v>95</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O34" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>81</v>
@@ -6079,7 +6075,7 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>82</v>
@@ -6091,7 +6087,7 @@
         <v>81</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>81</v>
@@ -6117,10 +6113,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6143,13 +6139,13 @@
         <v>95</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6200,7 +6196,7 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>94</v>
@@ -6212,36 +6208,36 @@
         <v>81</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="AK35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="AM35" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="AN35" t="s" s="2">
+      <c r="AO35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP35" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="AO35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP35" t="s" s="2">
+      <c r="AQ35" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="AQ35" t="s" s="2">
-        <v>352</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6264,13 +6260,13 @@
         <v>81</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6321,7 +6317,7 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>82</v>
@@ -6342,7 +6338,7 @@
         <v>81</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
@@ -6359,14 +6355,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6385,16 +6381,16 @@
         <v>81</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L37" t="s" s="2">
-        <v>150</v>
-      </c>
       <c r="M37" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6432,10 +6428,10 @@
         <v>81</v>
       </c>
       <c r="AB37" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AC37" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>81</v>
@@ -6444,7 +6440,7 @@
         <v>137</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>82</v>
@@ -6456,7 +6452,7 @@
         <v>81</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>81</v>
@@ -6465,7 +6461,7 @@
         <v>81</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
@@ -6482,10 +6478,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6511,14 +6507,14 @@
         <v>114</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>81</v>
@@ -6531,43 +6527,43 @@
         <v>81</v>
       </c>
       <c r="T38" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="Y38" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="U38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="Y38" t="s" s="2">
+      <c r="Z38" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="Z38" t="s" s="2">
+      <c r="AA38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF38" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>82</v>
@@ -6588,16 +6584,16 @@
         <v>81</v>
       </c>
       <c r="AM38" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AN38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP38" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP38" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="AQ38" t="s" s="2">
         <v>81</v>
@@ -6605,10 +6601,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6634,14 +6630,14 @@
         <v>114</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>81</v>
@@ -6654,7 +6650,7 @@
         <v>81</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="U39" t="s" s="2">
         <v>81</v>
@@ -6690,7 +6686,7 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>82</v>
@@ -6711,7 +6707,7 @@
         <v>81</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>81</v>
@@ -6728,10 +6724,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6754,19 +6750,19 @@
         <v>81</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="N40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>81</v>
@@ -6815,7 +6811,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>82</v>
@@ -6836,16 +6832,16 @@
         <v>81</v>
       </c>
       <c r="AM40" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP40" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP40" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="AQ40" t="s" s="2">
         <v>81</v>
@@ -6853,10 +6849,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6879,19 +6875,19 @@
         <v>95</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="N41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>81</v>
@@ -6904,43 +6900,43 @@
         <v>81</v>
       </c>
       <c r="T41" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF41" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>82</v>
@@ -6961,16 +6957,16 @@
         <v>81</v>
       </c>
       <c r="AM41" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP41" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP41" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="AQ41" t="s" s="2">
         <v>81</v>
@@ -6978,10 +6974,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7004,19 +7000,19 @@
         <v>95</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="N42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>81</v>
@@ -7065,7 +7061,7 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>82</v>
@@ -7086,7 +7082,7 @@
         <v>81</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -7103,10 +7099,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7129,19 +7125,19 @@
         <v>95</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="N43" t="s" s="2">
+      <c r="O43" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>81</v>
@@ -7190,7 +7186,7 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>82</v>
@@ -7211,7 +7207,7 @@
         <v>81</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
@@ -7228,10 +7224,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7254,17 +7250,17 @@
         <v>95</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>81</v>
@@ -7277,43 +7273,43 @@
         <v>81</v>
       </c>
       <c r="T44" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF44" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>82</v>
@@ -7334,7 +7330,7 @@
         <v>81</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
@@ -7351,10 +7347,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7377,17 +7373,17 @@
         <v>95</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>81</v>
@@ -7436,7 +7432,7 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>82</v>
@@ -7457,7 +7453,7 @@
         <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
@@ -7474,10 +7470,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7500,16 +7496,16 @@
         <v>95</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7538,11 +7534,11 @@
         <v>118</v>
       </c>
       <c r="Y46" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="Z46" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="Z46" t="s" s="2">
-        <v>427</v>
-      </c>
       <c r="AA46" t="s" s="2">
         <v>81</v>
       </c>
@@ -7559,7 +7555,7 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>82</v>
@@ -7577,30 +7573,30 @@
         <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="AM46" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="AN46" t="s" s="2">
+      <c r="AO46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ46" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AQ46" t="s" s="2">
-        <v>430</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7623,16 +7619,16 @@
         <v>95</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7682,7 +7678,7 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>82</v>
@@ -7703,7 +7699,7 @@
         <v>81</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>81</v>
@@ -7720,10 +7716,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7746,13 +7742,13 @@
         <v>81</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7803,7 +7799,7 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>82</v>
@@ -7824,7 +7820,7 @@
         <v>81</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>81</v>
@@ -7841,14 +7837,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7867,16 +7863,16 @@
         <v>81</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L49" t="s" s="2">
-        <v>150</v>
-      </c>
       <c r="M49" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7926,7 +7922,7 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>82</v>
@@ -7938,7 +7934,7 @@
         <v>81</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>81</v>
@@ -7947,7 +7943,7 @@
         <v>81</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>81</v>
@@ -7964,14 +7960,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7990,19 +7986,19 @@
         <v>95</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O50" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>81</v>
@@ -8051,7 +8047,7 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>82</v>
@@ -8063,7 +8059,7 @@
         <v>81</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>81</v>
@@ -8089,10 +8085,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8115,13 +8111,13 @@
         <v>81</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8172,7 +8168,7 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>82</v>
@@ -8187,19 +8183,19 @@
         <v>106</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="AL51" t="s" s="2">
+      <c r="AM51" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="AM51" t="s" s="2">
+      <c r="AN51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO51" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>81</v>
@@ -8210,10 +8206,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8236,16 +8232,16 @@
         <v>81</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8271,14 +8267,14 @@
         <v>81</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Y52" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="Z52" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="Z52" t="s" s="2">
-        <v>452</v>
-      </c>
       <c r="AA52" t="s" s="2">
         <v>81</v>
       </c>
@@ -8295,7 +8291,7 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>82</v>
@@ -8313,30 +8309,30 @@
         <v>81</v>
       </c>
       <c r="AL52" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="AM52" t="s" s="2">
+      <c r="AN52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ52" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AQ52" t="s" s="2">
-        <v>455</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8359,13 +8355,13 @@
         <v>95</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8416,7 +8412,7 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>82</v>
@@ -8434,30 +8430,30 @@
         <v>81</v>
       </c>
       <c r="AL53" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="AM53" t="s" s="2">
+      <c r="AN53" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="AN53" t="s" s="2">
+      <c r="AO53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ53" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AQ53" t="s" s="2">
-        <v>463</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8480,13 +8476,13 @@
         <v>81</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8513,14 +8509,14 @@
         <v>81</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Y54" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="Z54" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="Z54" t="s" s="2">
-        <v>468</v>
-      </c>
       <c r="AA54" t="s" s="2">
         <v>81</v>
       </c>
@@ -8537,7 +8533,7 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>82</v>
@@ -8555,30 +8551,30 @@
         <v>81</v>
       </c>
       <c r="AL54" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="AM54" t="s" s="2">
+      <c r="AN54" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="AN54" t="s" s="2">
+      <c r="AO54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ54" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AQ54" t="s" s="2">
-        <v>472</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8601,19 +8597,19 @@
         <v>81</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="N55" t="s" s="2">
+      <c r="O55" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>81</v>
@@ -8638,14 +8634,14 @@
         <v>81</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Y55" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="Z55" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="Z55" t="s" s="2">
-        <v>479</v>
-      </c>
       <c r="AA55" t="s" s="2">
         <v>81</v>
       </c>
@@ -8662,7 +8658,7 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>82</v>
@@ -8680,13 +8676,13 @@
         <v>81</v>
       </c>
       <c r="AL55" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="AM55" t="s" s="2">
-        <v>470</v>
-      </c>
       <c r="AN55" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>81</v>
@@ -8695,15 +8691,15 @@
         <v>81</v>
       </c>
       <c r="AQ55" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8726,13 +8722,13 @@
         <v>81</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8783,7 +8779,7 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>82</v>
@@ -8801,14 +8797,14 @@
         <v>81</v>
       </c>
       <c r="AL56" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AM56" t="s" s="2">
+      <c r="AN56" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="AN56" t="s" s="2">
-        <v>233</v>
-      </c>
       <c r="AO56" t="s" s="2">
         <v>81</v>
       </c>
@@ -8816,15 +8812,15 @@
         <v>81</v>
       </c>
       <c r="AQ56" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8847,16 +8843,16 @@
         <v>81</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8906,7 +8902,7 @@
         <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>82</v>
@@ -8924,22 +8920,22 @@
         <v>81</v>
       </c>
       <c r="AL57" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="AM57" t="s" s="2">
+      <c r="AN57" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="AN57" t="s" s="2">
+      <c r="AO57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ57" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AQ57" t="s" s="2">
-        <v>494</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-elm/StructureDefinition-PublishDocumentReference.xlsx
+++ b/ig/ch-elm/StructureDefinition-PublishDocumentReference.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T13:32:20+00:00</t>
+    <t>2024-06-17T08:59:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-PublishDocumentReference.xlsx
+++ b/ig/ch-elm/StructureDefinition-PublishDocumentReference.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.1</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T08:59:23+00:00</t>
+    <t>2024-08-20T16:32:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1098,7 +1098,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ch-elm-resolveableurl:Must have a resolvable URL. {url.exists() and url.resolve()}</t>
+ch-elm-resolveableurl:Must resolve to the contained bundle. {url.exists() and url.resolve()}</t>
   </si>
   <si>
     <t>Composition.language, 

--- a/ig/ch-elm/StructureDefinition-PublishDocumentReference.xlsx
+++ b/ig/ch-elm/StructureDefinition-PublishDocumentReference.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-20T16:32:03+00:00</t>
+    <t>2024-09-24T11:18:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1272,7 +1272,7 @@
     <t>The calculated hash of the data using SHA-1. Represented using base64.</t>
   </si>
   <si>
-    <t>The hash is calculated on the data prior to base64 encoding, if the data is based64 encoded. The hash is not intended to support digital signatures. Where protection against malicious threats a digital signature should be considered, see [Provenance.signature](provenance-definitions.html#Provenance.signature) for mechanism to protect a resource with a digital signature.</t>
+    <t>The hash is calculated on the data prior to base64 encoding, if the data is based64 encoded. The hash is not intended to support digital signatures. Where protection against malicious threats a digital signature should be considered, see [Provenance.signature](http://hl7.org/fhir/R4/provenance-definitions.html#Provenance.signature) for mechanism to protect a resource with a digital signature.</t>
   </si>
   <si>
     <t>Included so that applications can verify that the contents of a location have not changed due to technical failures (e.g., storage rot, transport glitch, incorrect version).</t>

--- a/ig/ch-elm/StructureDefinition-PublishDocumentReference.xlsx
+++ b/ig/ch-elm/StructureDefinition-PublishDocumentReference.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.0</t>
+    <t>1.6.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T11:18:39+00:00</t>
+    <t>2024-10-31T11:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-PublishDocumentReference.xlsx
+++ b/ig/ch-elm/StructureDefinition-PublishDocumentReference.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.6.0</t>
+    <t>1.7.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T11:15:20+00:00</t>
+    <t>2024-11-28T14:18:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-PublishDocumentReference.xlsx
+++ b/ig/ch-elm/StructureDefinition-PublishDocumentReference.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.7.0</t>
+    <t>1.8.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T14:18:34+00:00</t>
+    <t>2025-02-04T09:19:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-PublishDocumentReference.xlsx
+++ b/ig/ch-elm/StructureDefinition-PublishDocumentReference.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.0</t>
+    <t>1.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T09:19:33+00:00</t>
+    <t>2025-03-18T17:14:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-PublishDocumentReference.xlsx
+++ b/ig/ch-elm/StructureDefinition-PublishDocumentReference.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.0</t>
+    <t>1.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-18T17:14:46+00:00</t>
+    <t>2025-03-26T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-PublishDocumentReference.xlsx
+++ b/ig/ch-elm/StructureDefinition-PublishDocumentReference.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.1</t>
+    <t>1.10.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-26T08:01:17+00:00</t>
+    <t>2025-06-23T21:17:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1883,17 +1883,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="50.828125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="43.578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="77.93359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="66.81640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1902,29 +1902,29 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="35.69140625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="74.265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="57.0" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="44.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="30.6015625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="63.66796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="48.8671875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="37.78125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="52.0078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="44.5859375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="84.2265625" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" width="162.44921875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="72.20703125" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="139.26953125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/ch-elm/StructureDefinition-PublishDocumentReference.xlsx
+++ b/ig/ch-elm/StructureDefinition-PublishDocumentReference.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.10.0</t>
+    <t>1.11.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T21:17:45+00:00</t>
+    <t>2025-08-13T07:34:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-PublishDocumentReference.xlsx
+++ b/ig/ch-elm/StructureDefinition-PublishDocumentReference.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.11.0</t>
+    <t>1.12.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T07:34:00+00:00</t>
+    <t>2025-10-21T11:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -389,7 +389,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -656,7 +656,7 @@
     <t>Precise type of clinical document.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/c80-doc-typecodes</t>
+    <t>http://hl7.org/fhir/ValueSet/c80-doc-typecodes|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -703,7 +703,7 @@
     <t>High-level kind of a clinical document at a macro level.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/document-classcodes</t>
+    <t>http://hl7.org/fhir/ValueSet/document-classcodes|4.0.1</t>
   </si>
   <si>
     <t>Composition.class</t>
@@ -721,7 +721,7 @@
     <t>DocumentReference.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Practitioner|Group|Device)
+    <t xml:space="preserve">Reference(Patient|4.0.1|Practitioner|4.0.1|Group|4.0.1|Device|4.0.1)
 </t>
   </si>
   <si>
@@ -787,7 +787,7 @@
     <t>DocumentReference.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Device|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|Device|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -821,7 +821,7 @@
     <t>DocumentReference.authenticator</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -855,7 +855,7 @@
     <t>DocumentReference.custodian</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -977,7 +977,7 @@
     <t>DocumentReference.relatesTo.target</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference)
+    <t xml:space="preserve">Reference(DocumentReference|4.0.1)
 </t>
   </si>
   <si>
@@ -1042,7 +1042,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Composition.confidentiality, Composition.meta.security</t>
@@ -1343,7 +1343,7 @@
     <t>Document Format Codes.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/formatcodes</t>
+    <t>http://hl7.org/fhir/ValueSet/formatcodes|4.0.1</t>
   </si>
   <si>
     <t>Composition.meta.profile</t>
@@ -1382,7 +1382,7 @@
     <t>DocumentReference.context.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter|EpisodeOfCare)
+    <t xml:space="preserve">Reference(Encounter|4.0.1|EpisodeOfCare|4.0.1)
 </t>
   </si>
   <si>
@@ -1472,7 +1472,7 @@
     <t>XDS Facility Type.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/c80-facilitycodes</t>
+    <t>http://hl7.org/fhir/ValueSet/c80-facilitycodes|4.0.1</t>
   </si>
   <si>
     <t>usually from a mapping to a local ValueSet</t>
@@ -1505,7 +1505,7 @@
     <t>Additional details about where the content was created (e.g. clinical specialty).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/c80-practice-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/c80-practice-codes|4.0.1</t>
   </si>
   <si>
     <t>DocumentEntry.practiceSettingCode</t>
@@ -1514,7 +1514,7 @@
     <t>DocumentReference.context.sourcePatientInfo</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient)
+    <t xml:space="preserve">Reference(Patient|4.0.1)
 </t>
   </si>
   <si>
@@ -1530,7 +1530,7 @@
     <t>DocumentReference.context.related</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1893,7 +1893,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="66.81640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="93.98828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2915,7 +2915,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" hidden="true">
+    <row r="9">
       <c r="A9" t="s" s="2">
         <v>140</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>236</v>
       </c>
@@ -4635,7 +4635,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>275</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
         <v>322</v>
       </c>
@@ -6599,7 +6599,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
         <v>366</v>
       </c>
@@ -7345,7 +7345,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
         <v>414</v>
       </c>
@@ -8940,12 +8940,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AQ57">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/ig/ch-elm/StructureDefinition-PublishDocumentReference.xlsx
+++ b/ig/ch-elm/StructureDefinition-PublishDocumentReference.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.12.0</t>
+    <t>1.13.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T11:52:21+00:00</t>
+    <t>2025-11-25T09:58:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-PublishDocumentReference.xlsx
+++ b/ig/ch-elm/StructureDefinition-PublishDocumentReference.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.13.0</t>
+    <t>1.13.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T09:58:53+00:00</t>
+    <t>2026-01-21T11:21:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
